--- a/data/output/Spenden_Beispiele.xlsx
+++ b/data/output/Spenden_Beispiele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="149">
   <si>
     <t>Titel</t>
   </si>
@@ -37,21 +37,39 @@
     <t>Verlag</t>
   </si>
   <si>
+    <t>ppn</t>
+  </si>
+  <si>
     <t>nach_ISBN_Titel</t>
   </si>
   <si>
     <t>nach_ISBN_Sprache_Text</t>
   </si>
   <si>
+    <t>medium</t>
+  </si>
+  <si>
     <t>Titel_und_nach_ISBN_Titel_Ähnlichkeit_Score</t>
   </si>
   <si>
     <t>nach_ISBN_Bestand_K10</t>
   </si>
   <si>
+    <t>nach_Titel_ppn</t>
+  </si>
+  <si>
+    <t>nach_Titel_medium</t>
+  </si>
+  <si>
     <t>nach_Titel_Bestand_K10</t>
   </si>
   <si>
+    <t>nach_Titel_Autor_ppn</t>
+  </si>
+  <si>
+    <t>nach_Titel_Autor_medium</t>
+  </si>
+  <si>
     <t>nach_Titel_Autor_Bestand_K10</t>
   </si>
   <si>
@@ -73,7 +91,10 @@
     <t>nach_Titel_Ort_Göttingen</t>
   </si>
   <si>
-    <t>error_nach_title</t>
+    <t>nach_Titel_Medium_Göttingen</t>
+  </si>
+  <si>
+    <t>nach_Titel_URL_GUK</t>
   </si>
   <si>
     <t>nach_Titel_Nachname_Autor_Bestand_Göttingen</t>
@@ -214,6 +235,15 @@
     <t>Brooks/Cole</t>
   </si>
   <si>
+    <t>607703474</t>
+  </si>
+  <si>
+    <t>1622488539</t>
+  </si>
+  <si>
+    <t>640480225|634929933</t>
+  </si>
+  <si>
     <t>The @picture of Dorian Gray</t>
   </si>
   <si>
@@ -229,6 +259,84 @@
     <t>spa</t>
   </si>
   <si>
+    <t>Aau</t>
+  </si>
+  <si>
+    <t>Aau|Aau</t>
+  </si>
+  <si>
+    <t>1772506168|176674138X|1765588758|1751960218|1743066961|1695147227|1744476322|1741769108|1733430695|1727072596|168521827X|1683588118|167824564X|1668875004|176561385X|1757255273|1744393826|1686319266|1678243515|1678242829|1676083669|1676083650|1664684816|1699503176|1682969231|1002478057|1675385289|1023956675|1020764368|1017997969|889421366|889421153|887635784|1749011883|1742205798|1682633241|1673771084|1539173909|1002806666|868339180|863268390|862783860|861442857|857720848|848592514|1749472805|1699625204|1689050217|1677318236|1674575858|1616956194|1616202564|1615478744|1614652724|1521577455|102969642X|1029504296|1027164986|826190081|1754637183|1727193679|1611858461|1610540654|891126740|81882140X|815557809|804319987|80350764X|798104937|787896519|774437405|771976704|1699466262|1635553180|818209127|768459516|74506955X|732656877|716826216|1770817115|1766762026|1763118134|1733082956|1702461351|1696345359|1654260266|1626555117|1612598374|160983366X|1603364188|104756145X|103096534X|1023711532|806867604|778352072|745575684|741068583|739667742|737730919|736189661</t>
+  </si>
+  <si>
+    <t>1772622796|1765201608|1762439573|1759518611|175492865X|1754912117|1753008883|1753008026|1753007356|1753006864|1753006384|1748036351|1744592802|1770874097|1737383888|1736190903|1736189948|1736189190|1702070603|1691589616|1690417552|1690416491|1690416297|1690416157|1690416025|1690415142|1688891366|1686787308|1685289916|1684228522|1665758163|1770765077|1691875031|1689220155|1688749861|1677683805|1671801350|1671800540|1666147869|1665199407|1665131284|1665131063|166513092X|1665130040|1665129697|1665129492|1665129484|1049169891|1049162609|1046892649|1043679359|1043295860|1032580682|1004905297|1744444919|1735541605|1699796955|1682962849|1678939897|1669902404|1668564211|1667557440|1650704763|1645351351|1643157922|1585592854|1067512160|1040110444|1039865909|1030903573|1030490988|1029171564|1028457499|1028157231|1024127796|1023982609|1020892099|1019623063|1018526889|1015038050|1011754681|1004904215|1002969638|890344191|876529317|1682750353|1067506586|1014725763|1014649838|1013853342|1010706306|88971567X|887627846|885133986|885133498|885130693|880248327|880247762|880247126|880246960</t>
+  </si>
+  <si>
+    <t>1675244227|1675244219|1645387321|1024122603|1024121720|1049562372|861054873|845113364|647664100|1675391467|1675239150|1607617633|671439111|655592822|1675119937|1428926895|1397415371|655339450|640480225|634929933|1674700237|1616270446|167011709X|520143736|376460822|1614166757|1346281394|1179575067|837900999|399817301|329858114|1602507090|865267057|335878385|324932561|336028474|1726131998|770510469|665727690|570162866|468976809|190073969|1603111301|252622499|193296357|1631016601|1611103517|469566779|271005319|1646116720|185110789|1614769451|46691203X|163662541X|1613003226|1602505187|236797395|082964793|1646718283|1606513168|741791935|469819316|469039183|277954878|182712583|042620643|042582989|021179255|018535062|1642738255|1612199054|835536459|568624726|252549511|158105826|042465877|024707295|460887742|322607892|489850340|083730605|460837737|011663472|1617622281|1125880031|233020144|011646721|1621371190|1612236235|469013273|460967495|460564145|345569814|02309558X|1636080561|463386728|462360741|46083746X|118409022X|462247961</t>
+  </si>
+  <si>
+    <t>1425769853</t>
+  </si>
+  <si>
+    <t>857686739|77335610X|680332758|52783789X|1615015337|1640966978|163307962|055047432|05459703X|1619376229|039124053|1611381754|1136804676|1559578785|1348478985|1356540333|1351519646|1626576718|665208049|66520681X|665206666|79171148X|1727742443|1742892876|1336194634|1378978978|407360689|361582307|356391744|354683756|391912577|391906968|381622924|358156041|37293711X|483899267</t>
+  </si>
+  <si>
+    <t>021147884|644267933|48654561X|112812856</t>
+  </si>
+  <si>
+    <t>1383625417|610755234|1475843968|1320606717|1178100294|619328428|527614297|1158576447|32784616X|180599453|363827811|082958939|111592768X|1651786429|153921690X|355829185|022248846|22386711X|192443941|1082676195|1078508119|50542956X|233065520|1129339807|1071271512|37696488X|1747546836|111827198X|885684192|1188948008|1181643112|1145643566|349319588|668847514|362189374|040458741|1328622363|212238817|1345672764|1524045926|108077856X|362187061|1420207458|117825769X|1174255595|1170941141|1150627662|1080778454|386417776|38629657X|362176191|328690597|268615942|032217935|031880002|1160534268|44908325X|1186905611|1137277785|1160588058|1415560595|1382722176|1171011075|083015841|77126626X|362217394|863845592|863845436|863845304|1416127747|449269582</t>
+  </si>
+  <si>
+    <t>1755513690|1622796276|834150492|814324231|786160322|768492173</t>
+  </si>
+  <si>
+    <t>Oax|Oax|Oax|Oax|Aax|Oax|Aau|Oax|Oax|Asu|Aau|Aax|Aax|Aax|Asn|Oau|Aau|Aau|Aax|Aaa|Oax|Oax|Aax|Oax|Oax|Aax|Oax|Oax|Asu|Aax|Aax|Aax|Aau|Oax|Bau|Oax|Oax|Bau|Oax|Oax|Bax|Aax|Aax|AFu|Oax|Aau|Oax|Oax|Bau|Oax|Aau|Aau|Aau|Aau|Afu|Oax|Oax|Oax|Aau|Aan|Oau|Aau|Aau|Oax|Aau|Oax|Oax|Asu|Oax|Aau|Aau|Aau|Oax|Asu|Bau|Aau|Oax|Aau|Aau|Lax|Oax|Oax|Oax|Oax|Oax|Oan|Aau|Aau|Aau|Aau|Aan|Oax|Aau|Oau|Oax|Oan|Aau|Oax|Oax|Oax</t>
+  </si>
+  <si>
+    <t>Aax|Asu|Oax|Oax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aau|Asu|Aax|Aax|Aax|Asu|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aau|Aau|Aau|Aau|Aax|Aax|Aax|Aax|Aax|AFu|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aax|Aau|Aau|Aau|Aau|Aau|Oax|Asu|Aax|Aax|Acu|Asn|Aau|Asu|Afu|Asu|Aau|Aau|Aax|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Asu|Aax|Aau|Aau|Aau|Aau|Aau|Oax|Aau|Aax|Aau|Asu|Aax|Aax|Aau|Aax|Aax|Aax|Aax|Aax|Aax|Aax</t>
+  </si>
+  <si>
+    <t>Oax|Oax|Aau|Aau|Aau|Oax|Aau|Aax|Aau|Oax|Oax|Aau|Aau|Oax|Oax|Bau|Aau|Oax|Aau|Aau|Oax|Aau|Aau|Aax|Aau|Aau|Bau|Bar|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Bau|Aau|AaB|Aau|Aau|Aau|Aau|Aau|Aar|AaB|Aau|Aau|Aau|Aau|Aau|Aar|Aau|Aau|Aau|Aan|Aar|Aar|Aax|AaB|AaB|Aan|Aau|Aau|Aau|Aau|Aan|Aar|Aau|Aau|Aau|Aau|Aau|Aan|Aau|Asn|Aau|Aau|Aan|Asn|Aan|Aau|Bau|Aan|Aau|Aar|Aau|AaB|Asn|Asn|Aar|Aar|Aax|Asn|Asn|Asn|Aau|Asn</t>
+  </si>
+  <si>
+    <t>Aar</t>
+  </si>
+  <si>
+    <t>Aau|Aau|Aax|Aau|Aar|Aau|Aau|Aau|Aau|Aax|Aan|Aau|Aar|Aau|Aax|Aax|Aax|Aau|Aau|Aau|Aau|Aan|Aau|Aan|Aau|Aau|Aar|Aar|Afu|Acu|Afus|Acus|Aar|Aaa|Aaus|Aar</t>
+  </si>
+  <si>
+    <t>Aan|Aar|Aau|Aau</t>
+  </si>
+  <si>
+    <t>BFu|BFu|Bau|Bau|Bax|Ban|Bay|Bar|Bau|Aau|Aau|Aau|Afr|Aar|Afu|Aau|Aau|Aan|Aan|AFu|Bau|Aau|Aan|Afr|Afr|Aau|Ban|Aau|Aau|Afx|Aax|Aar|Aau|Afr|Aau|Aan|Afu|Afr|Aan|Afu|Afu|AFr|Afr|Afr|Afr|Afr|Afr|Afu|Bay|Bay|AFr|AFr|AFu|Asu|Afn|Aar|Aan|Aar|Aau|Aar|Aar|Aau|Aar|Aau|Aau|AFr|Afu|Afu|Acu|AFr|aan</t>
+  </si>
+  <si>
+    <t>Aax|Aau|Aau|Oan|Oax|Aau</t>
+  </si>
+  <si>
+    <t>1772506168|176674138X|1751960218|1743066961|1695147227|1744476322|1741769108|1733430695|168521827X|1683588118|167824564X|1668875004|1757255273|1744393826|1686319266|1678243515|1678242829|1699503176|1682969231|1023956675|889421366|889421153|887635784|1749011883|1682633241|1539173909|863268390|862783860|861442857|857720848|1749472805|1699625204|1689050217|1677318236|1616956194|1616202564|1615478744|1614652724|102969642X|1029504296|1027164986|826190081|1754637183|1727193679|1611858461|1610540654|891126740|81882140X|804319987|798104937|787896519|774437405|771976704|1699466262|818209127|768459516|732656877|716826216|1763118134|1702461351|1696345359|1654260266|1626555117|1612598374|160983366X|1603364188|103096534X|1023711532|806867604|778352072|745575684|741068583|739667742|737730919|736189661|735063176|734202903|734192371|730827526|716880776|716838400|688904424|68809239X|679764100|1668973332|1659242711|161497599X|1613709013|668720328|640835449|1654794325|1623998093|160598440X|1602682216|1601693672|1390923606|896499197|738869864|727563033|723123128</t>
+  </si>
+  <si>
+    <t>1645387321|1024122603|1024121720|845113364|647664100|1607617633|671439111|1428926895|640480225|634929933|1616270446|167011709X|520143736|376460822|1614166757|1346281394|1179575067|837900999|399817301|1602507090|335878385|324932561|336028474|1726131998|770510469|665727690|570162866|1603111301|252622499|193296357|1611103517|271005319|1646116720|185110789|1614769451|163662541X|1613003226|1602505187|082964793|1606513168|741791935|469819316|469039183|277954878|042620643|042582989|021179255|1642738255|1612199054|835536459|568624726|252549511|158105826|042465877|024707295|322607892|489850340|083730605|011663472|1617622281|1125880031|233020144|011646721|1612236235|345569814|1636080561|118409022X|117696021|1105474720|362973040|301409102|1374625779|535342667|480984581|1124191658|223671037|1134629281|1130177955|1611703778|074415506|1604147687|1383128413|1130178021|1078121133|465481914|465322581|366482890|175729689|1485847400|1134629389|223783315|1130178269|464870305|1130177866|448401061|175729670|1130178161|1700210386|1140423614|345428013</t>
+  </si>
+  <si>
+    <t>52783789X|1615015337|1640966978|055047432|1619376229|039124053|1611381754|1136804676|1559578785|1348478985|1356540333|1351519646|1626576718|665208049|66520681X|665206666|79171148X|1727742443|1742892876|1336194634</t>
+  </si>
+  <si>
+    <t>1383625417|610755234|1475843968|1320606717|1178100294|619328428|1158576447|32784616X|180599453|363827811|082958939|111592768X|1651786429|153921690X|355829185|022248846|22386711X|192443941|1082676195|1078508119|50542956X|233065520|1129339807|1071271512|37696488X|111827198X|885684192|1188948008|1181643112|1145643566|349319588|668847514|362189374|040458741|1328622363|212238817|1345672764|1524045926|108077856X|362187061|1420207458|117825769X|1174255595|1170941141|1150627662|1080778454|386417776|38629657X|362176191|328690597|268615942|032217935|031880002|1160534268|44908325X|1186905611|1137277785|1160588058|1415560595|1382722176|1171011075|083015841|1416127747</t>
+  </si>
+  <si>
+    <t>Oax|Oax|Oax|Aax|Oax|Aau|Oax|Oax|Aau|Aax|Aax|Aax|Oau|Aau|Aau|Aax|Aaa|Oax|Oax|Oax|Aax|Aax|Aau|Oax|Oax|Bau|Bax|Aax|Aax|AFu|Aau|Oax|Oax|Bau|Aau|Aau|Aau|Aau|Oax|Oax|Oax|Aau|Aan|Oau|Aau|Aau|Oax|Aau|Oax|Oax|Aau|Aau|Aau|Oax|Bau|Aau|Aau|Aau|Oax|Oax|Oax|Oan|Aau|Aau|Aau|Aau|Oax|Aau|Oau|Oax|Oan|Aau|Oax|Oax|Oax|Aau|Oax|Oax|Aau|Aau|Bau|Aau|Aau|Aau|Aax|Oau|Aau|Aau|Aau|Aau|Oan|Aau|Aau|Aau|Aau|Bau|Aan|Oax|Aau|Oax</t>
+  </si>
+  <si>
+    <t>Aau|Aau|Aau|Aax|Aau|Aau|Aau|Bau|Aau|Aau|Aau|Aau|Aax|Aau|Aau|Bau|Bar|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Aau|Bau|Aau|Aau|Aau|Aau|Aar|Aau|Aau|Aau|Aau|Aar|Aau|Aau|Aan|Aar|Aax|AaB|AaB|Aan|Aau|Aau|Aau|Aar|Aau|Aau|Aau|Aau|Aau|Aan|Aau|Aau|Aau|Aan|Aan|Aau|Bau|Aan|Aau|Aau|Aar|Aax|Aau|Aau|Sau|Aau|Aau|Aau|Aau|Aau|Aar|Aan|Aau|Aau|Aau|Aan|Aau|Aau|Aau|Aau|Aan|Aan|Aar|Aau|Aau|Aau|Aan|Aau|Aan|Aau|Aan|Aau|Aau|Aar|Aar|Aar</t>
+  </si>
+  <si>
+    <t>Aau|Aar|Aau|Aau|Aax|Aan|Aau|Aar|Aau|Aax|Aax|Aax|Aau|Aau|Aau|Aau|Aan|Aau|Aan|Aau</t>
+  </si>
+  <si>
+    <t>BFu|BFu|Bau|Bau|Bax|Ban|Bar|Bau|Aau|Aau|Aau|Afr|Aar|Afu|Aau|Aau|Aan|Aan|AFu|Bau|Aau|Aan|Afr|Afr|Aau|Aau|Aau|Afx|Aax|Aar|Aau|Afr|Aau|Aan|Afu|Afr|Aan|Afu|Afu|AFr|Afr|Afr|Afr|Afr|Afr|Afu|Bay|Bay|AFr|AFr|AFu|Asu|Afn|Aar|Aan|Aar|Aau|Aar|Aar|Aau|Aar|Aau|AFr</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -238,9 +346,6 @@
     <t>BBK-ROM</t>
   </si>
   <si>
-    <t>Aau</t>
-  </si>
-  <si>
     <t>https://opac.sub.uni-goettingen.de/DB=1/SET=6/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=isb+9780140623222&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
   </si>
   <si>
@@ -250,6 +355,9 @@
     <t>https://opac.sub.uni-goettingen.de/DB=1/SET=6/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=isb+9788423339044&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
   </si>
   <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=6/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=isb+&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
@@ -265,16 +373,58 @@
     <t>2</t>
   </si>
   <si>
-    <t>FMAG|7/029|LS1</t>
-  </si>
-  <si>
-    <t>BBW-KJL|7/055|LS1</t>
+    <t>LS1|FMAG|7/029</t>
+  </si>
+  <si>
+    <t>LS1|7/055|BBW-KJL</t>
   </si>
   <si>
     <t>HG-MAG</t>
   </si>
   <si>
-    <t>BBK-ROM|LS1</t>
+    <t>LS1|BBK-ROM</t>
+  </si>
+  <si>
+    <t>Aau|Aaukr|Aaukf|Asu|Aaua</t>
+  </si>
+  <si>
+    <t>Aaua|Aau</t>
+  </si>
+  <si>
+    <t>Aan|Aau|Asu|Aar</t>
+  </si>
+  <si>
+    <t>Aaus</t>
+  </si>
+  <si>
+    <t>AFr|Aau|Afn</t>
+  </si>
+  <si>
+    <t>Oan|Oaxkf</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit The picture of Dorian Gray&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit Gustav Klimt&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit La familia de Pascual Duarte&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit Auf der Eidechsburg&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit Bayerisches Kochbuch&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit Centenaire de l‘Impressionisme&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit Les parents terribles&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
+  </si>
+  <si>
+    <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=tit Straightforward Statistics&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
   </si>
   <si>
     <t>29</t>
@@ -283,13 +433,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>Aaukr|Aau|Aaukf</t>
-  </si>
-  <si>
-    <t>Aau|Aan|Aar</t>
-  </si>
-  <si>
-    <t>Aau|AFr|Afn</t>
+    <t>Aaukf|Aau|Aaukr</t>
+  </si>
+  <si>
+    <t>Aan|Aau|Aar</t>
   </si>
   <si>
     <t>https://opac.sub.uni-goettingen.de/DB=1/SET=2/TTL=1/CMD?ACT=SRCHA&amp;IKT=1016&amp;SRT=YOP&amp;TRM=TIT"The picture of Dorian Gray" and PER Wilde&amp;MATCFILTER=N&amp;MATCSET=N&amp;NOSCAN=N&amp;ADI_BIB=</t>
@@ -684,13 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,423 +910,586 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2">
+        <v>76</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2">
         <v>0.98</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="M2">
-        <v>175</v>
-      </c>
-      <c r="N2">
-        <v>220</v>
-      </c>
       <c r="O2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2">
+        <v>107</v>
+      </c>
+      <c r="R2" t="s">
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+      <c r="T2">
+        <v>139</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3">
         <v>0.5</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>208</v>
-      </c>
       <c r="O3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" t="s">
         <v>84</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>93</v>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3">
+        <v>167</v>
+      </c>
+      <c r="U3" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4">
         <v>0.98</v>
       </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4">
+        <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N4">
-        <v>163</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>95</v>
+      <c r="X5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>1950</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6">
-        <v>41</v>
-      </c>
-      <c r="N6">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6" t="s">
+        <v>101</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T6" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>1974</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7">
-        <v>6</v>
-      </c>
-      <c r="S7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>97</v>
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>1938</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8">
-        <v>107</v>
-      </c>
-      <c r="N8">
-        <v>98</v>
+        <v>71</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s">
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s">
-        <v>86</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>81</v>
-      </c>
-      <c r="W8" t="s">
-        <v>86</v>
-      </c>
-      <c r="X8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
+      </c>
+      <c r="T8">
+        <v>39</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>1996</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9">
-        <v>32</v>
-      </c>
-      <c r="S9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>99</v>
+        <v>72</v>
+      </c>
+      <c r="O9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9">
+        <v>27</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="Y2" r:id="rId2"/>
-    <hyperlink ref="R3" r:id="rId3"/>
-    <hyperlink ref="Y3" r:id="rId4"/>
-    <hyperlink ref="R4" r:id="rId5"/>
-    <hyperlink ref="Y4" r:id="rId6"/>
-    <hyperlink ref="Y5" r:id="rId7"/>
-    <hyperlink ref="Y6" r:id="rId8"/>
-    <hyperlink ref="Y7" r:id="rId9"/>
-    <hyperlink ref="Y8" r:id="rId10"/>
-    <hyperlink ref="Y9" r:id="rId11"/>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="AB2" r:id="rId2"/>
+    <hyperlink ref="AF2" r:id="rId3"/>
+    <hyperlink ref="X3" r:id="rId4"/>
+    <hyperlink ref="AB3" r:id="rId5"/>
+    <hyperlink ref="AF3" r:id="rId6"/>
+    <hyperlink ref="X4" r:id="rId7"/>
+    <hyperlink ref="AB4" r:id="rId8"/>
+    <hyperlink ref="AF4" r:id="rId9"/>
+    <hyperlink ref="X5" r:id="rId10"/>
+    <hyperlink ref="AB5" r:id="rId11"/>
+    <hyperlink ref="AF5" r:id="rId12"/>
+    <hyperlink ref="X6" r:id="rId13"/>
+    <hyperlink ref="AB6" r:id="rId14"/>
+    <hyperlink ref="AF6" r:id="rId15"/>
+    <hyperlink ref="X7" r:id="rId16"/>
+    <hyperlink ref="AB7" r:id="rId17"/>
+    <hyperlink ref="AF7" r:id="rId18"/>
+    <hyperlink ref="X8" r:id="rId19"/>
+    <hyperlink ref="AB8" r:id="rId20"/>
+    <hyperlink ref="AF8" r:id="rId21"/>
+    <hyperlink ref="X9" r:id="rId22"/>
+    <hyperlink ref="AB9" r:id="rId23"/>
+    <hyperlink ref="AF9" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
